--- a/hotter/框图.xlsx
+++ b/hotter/框图.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -23,6 +36,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>小程序：</t>
     </r>
     <r>
@@ -42,6 +63,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>云服务</t>
     </r>
     <r>
@@ -135,12 +164,13 @@
  1、控制板主动get云端固件版本号，如果版本不一致，进入升级模式；
  2、控制板每get一次后，云端每次返回1kbyte+2个字节（crc)，最后一帧数据不足1024字节的，按照实际字节处理
  3、为防止设备变砖，服务端存放两个版本的固件链接。
+   设备请求http数据格式：39.106.131.169:9006/api/ota/866289037465624
    服务端返回版本号格式：
-     {V1.0.0,33,39.106.158.131/u},
+     {V1.0.0,33,39.106.158.131/api/ota/866289037465624/},
      版本号：V1.0.0；
      固件数据帧数：33；
-     固件首帧数据连接：39.106.158.131/u/1
-     固件最后一帧数据连接：39.106.158.131/u/33</t>
+     固件首帧数据连接：106.158.131/api/ota/866289037465624/1
+     固件最后一帧数据连接：106.158.131/api/ota/866289037465624/33</t>
     </r>
   </si>
   <si>
@@ -159,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1397,8 +1427,8 @@
   <sheetPr/>
   <dimension ref="C2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1436,7 +1466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="158.4" spans="3:3">
+    <row r="28" ht="172.8" spans="3:3">
       <c r="C28" s="6" t="s">
         <v>6</v>
       </c>

--- a/hotter/框图.xlsx
+++ b/hotter/框图.xlsx
@@ -164,13 +164,53 @@
  1、控制板主动get云端固件版本号，如果版本不一致，进入升级模式；
  2、控制板每get一次后，云端每次返回1kbyte+2个字节（crc)，最后一帧数据不足1024字节的，按照实际字节处理
  3、为防止设备变砖，服务端存放两个版本的固件链接。
-   设备请求http数据格式：39.106.131.169:9006/api/ota/866289037465624
+   设备请求http数据格式：39.106.131.169:9006/api/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ota/a/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>866289037465624或39.106.131.169:9006/api/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ota/b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/866289037465624
    服务端返回版本号格式：
      {V1.0.0,33,39.106.158.131/api/ota/866289037465624/},
      版本号：V1.0.0；
      固件数据帧数：33；
      固件首帧数据连接：106.158.131/api/ota/866289037465624/1
-     固件最后一帧数据连接：106.158.131/api/ota/866289037465624/33</t>
+     固件最后一帧数据连接：106.158.131/api/ota1/866289037465624/33</t>
     </r>
   </si>
   <si>
@@ -196,7 +236,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +418,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1160,6 +1207,48 @@
         <a:xfrm>
           <a:off x="1219200" y="647700"/>
           <a:ext cx="6484620" cy="2720340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7757160" y="15441930"/>
+          <a:ext cx="13058775" cy="9715500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1427,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="C2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1466,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="172.8" spans="3:3">
+    <row r="28" ht="187.2" spans="3:3">
       <c r="C28" s="6" t="s">
         <v>6</v>
       </c>
